--- a/SF_Papers.xlsx
+++ b/SF_Papers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JSophiaFu/Desktop/MIT interview/R Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JSophiaFu/Desktop/R analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59ED130-1F5E-A841-A7B3-FBA82304DAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10F3301-0C53-1942-A4E2-3D5199B0DEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4780" yWindow="1520" windowWidth="32100" windowHeight="23100" xr2:uid="{C054AA83-6ECB-DE40-B8D1-6F9C83A91C32}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -550,12 +550,80 @@
   <si>
     <t>This study examines the processes of complex innovation adoption in an interorganizational system. It distinguishes the innovation adoption mechanisms of organizational-decision-makers (ODMs), who make authority adoption decisions on behalf of an organization, from individual-decision-makers (IDMs), who make optional innovation decisions in their own work practice. Drawing on the Theory of Reasoned Action and Social Information Processing Theory, we propose and test a theoretical model of interorganizational social influence. We surveyed government health-care workers, whose advice networks mostly span organizational boundaries, across 1,849 state health agencies in Bihar, India. The collective attitudes of coworkers and advice network members influence health-care workers’ attitudes and perceptions of social norms toward four types of innovations. However, individuals’ decision-making authority moderates these relationships; advisors’ attitudes have a greater influence on ODMs, while perceptions of social norms only influence IDMs. Notably, heterogeneity of advisors’ and coworkers’ attitudes negatively influence IDMs’ evaluations of innovations but not ODMs’.</t>
   </si>
+  <si>
+    <t>Reconsidering communication visibility in politically restrictive contexts: organizational social media use in China</t>
+  </si>
+  <si>
+    <r>
+      <t>Increasing evidence reveals that social media visibility produces paradoxes in which actors simultaneously confront contradictory, even mutually exclusive, conditions. Yet limited research has explored how actors perceive these paradoxes and manage resulting tensions in a politically repressive context. Ubiquitous government oversight, information control, and Internet censorship may uniquely complicate paradoxes of visibility in non-Western environments. To address this gap, this research reconsiders the paradox(es) of visibility in politically restrictive contexts. Interview data from 50 social entrepreneurs and two field experts in China reveal the antecedents to visibility paradoxes, and suggest three novel forms of paradoxes: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>resource investment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>public attention</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>social change</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>. We also show these paradoxes are interdependent such that one may be amplified or attenuated by the other paradoxes. Further, we identify three strategies for responding to these paradoxes and suggest implications for vulnerable actors in maintaining a public profile, especially in sensitive sociopolitical environments.</t>
+    </r>
+  </si>
+  <si>
+    <t>visibility, paradox, tension, affordances, social media, ICTs, digital technology, social entrepreneurship, China, institutional context, civil society organizing, Global South</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -636,6 +704,20 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF2A2A2A"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="15"/>
+      <color rgb="FF2A2A2A"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -663,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -678,6 +760,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -992,11 +1075,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F37F3BA-1542-2A46-B632-7B0B0D5B3F9E}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1004,7 +1087,7 @@
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="26.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="2"/>
-    <col min="4" max="4" width="19.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="23.6640625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="2"/>
@@ -1425,17 +1508,31 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="4:6">
+    <row r="33" spans="3:6">
       <c r="F33" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="4:6" ht="19">
+    <row r="34" spans="3:6" ht="19">
       <c r="D34" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="119">
+      <c r="C35" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
